--- a/Summary Analysis.xlsx
+++ b/Summary Analysis.xlsx
@@ -17742,10 +17742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -17837,12 +17837,6 @@
       <c r="C7" s="3">
         <f>Outdoors!B5</f>
         <v>2147.5191204588909</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9">
-        <f>COUNTIF(Outdoors!B7:B1053, "&gt;300")</f>
-        <v>953</v>
       </c>
     </row>
   </sheetData>
